--- a/Results/Final Results/Samples/900Scen/Results_Sample900_07.xlsx
+++ b/Results/Final Results/Samples/900Scen/Results_Sample900_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Samples\900Scen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4581E253-C9A4-4067-AC12-814F662A1096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0912AA36-9C39-411B-AECE-A22962B31909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -764,7 +764,8 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.3540000000000003E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.7097603813332791E-2</v>
       </c>
       <c r="H2">
         <v>0.18731999999999999</v>
@@ -808,7 +809,8 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>8.3540000000000003E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.7097603813332791E-2</v>
       </c>
       <c r="H3">
         <v>0.18731999999999999</v>
@@ -861,7 +863,8 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>8.3540000000000003E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.7097603813332791E-2</v>
       </c>
       <c r="H4">
         <v>0.18731999999999999</v>
@@ -911,7 +914,8 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>8.3540000000000003E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.7097603813332791E-2</v>
       </c>
       <c r="H5">
         <v>0.18731999999999999</v>
@@ -961,7 +965,8 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>8.3540000000000003E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.7097603813332791E-2</v>
       </c>
       <c r="H6">
         <v>0.18731999999999999</v>
@@ -1011,7 +1016,8 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>8.3540000000000003E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.7097603813332791E-2</v>
       </c>
       <c r="H7">
         <v>0.18731999999999999</v>
@@ -1064,7 +1070,8 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6.368E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.9868466321121437E-2</v>
       </c>
       <c r="H8">
         <v>0.16231999999999999</v>
@@ -1114,7 +1121,8 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>6.368E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.9868466321121437E-2</v>
       </c>
       <c r="H9">
         <v>0.16231999999999999</v>
@@ -1158,7 +1166,8 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>6.368E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.9868466321121437E-2</v>
       </c>
       <c r="H10">
         <v>0.16231999999999999</v>
@@ -1202,7 +1211,8 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>6.368E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.9868466321121437E-2</v>
       </c>
       <c r="H11">
         <v>0.16231999999999999</v>
@@ -1255,7 +1265,8 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>6.368E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.9868466321121437E-2</v>
       </c>
       <c r="H12">
         <v>0.16231999999999999</v>
@@ -1299,7 +1310,8 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>6.368E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.9868466321121437E-2</v>
       </c>
       <c r="H13">
         <v>0.16231999999999999</v>
@@ -1355,7 +1367,8 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>7.6200000000000004E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.0804689688287847E-2</v>
       </c>
       <c r="H14">
         <v>0.17837</v>
@@ -1405,7 +1418,8 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>7.603E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.0655422115549621E-2</v>
       </c>
       <c r="H15">
         <v>0.17837</v>
@@ -1455,7 +1469,8 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>7.6200000000000004E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.0804689688287847E-2</v>
       </c>
       <c r="H16">
         <v>0.17837</v>
@@ -1505,7 +1520,8 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>7.6200000000000004E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.0804689688287847E-2</v>
       </c>
       <c r="H17">
         <v>0.17837</v>
@@ -1555,7 +1571,8 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>7.6200000000000004E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.0804689688287847E-2</v>
       </c>
       <c r="H18">
         <v>0.17837</v>
@@ -1605,7 +1622,8 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>7.6200000000000004E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.0804689688287847E-2</v>
       </c>
       <c r="H19">
         <v>0.17837</v>
@@ -1658,7 +1676,8 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>6.5119999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.1137793991142733E-2</v>
       </c>
       <c r="H20">
         <v>0.1714</v>
@@ -1708,7 +1727,8 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>6.5119999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.1137793991142733E-2</v>
       </c>
       <c r="H21">
         <v>0.1714</v>
@@ -1758,7 +1778,8 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>6.5119999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.1137793991142733E-2</v>
       </c>
       <c r="H22">
         <v>0.1714</v>
@@ -1808,7 +1829,8 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>6.5119999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.1137793991142733E-2</v>
       </c>
       <c r="H23">
         <v>0.1714</v>
@@ -1858,7 +1880,8 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>6.5119999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.1137793991142733E-2</v>
       </c>
       <c r="H24">
         <v>0.1714</v>
@@ -1908,7 +1931,8 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>6.5119999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.1137793991142733E-2</v>
       </c>
       <c r="H25">
         <v>0.1714</v>
@@ -1961,7 +1985,8 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>7.8E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.2354367602611255E-2</v>
       </c>
       <c r="H26">
         <v>0.18329000000000001</v>
@@ -2011,7 +2036,8 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>7.8E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.2354367602611255E-2</v>
       </c>
       <c r="H27">
         <v>0.18329000000000001</v>
@@ -2061,7 +2087,8 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>7.8E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.2354367602611255E-2</v>
       </c>
       <c r="H28">
         <v>0.18329000000000001</v>
@@ -2111,7 +2138,8 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>7.8E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.2354367602611255E-2</v>
       </c>
       <c r="H29">
         <v>0.18329000000000001</v>
@@ -2161,7 +2189,8 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>7.8E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.2354367602611255E-2</v>
       </c>
       <c r="H30">
         <v>0.18329000000000001</v>
@@ -2211,7 +2240,8 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>7.8E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.2354367602611255E-2</v>
       </c>
       <c r="H31">
         <v>0.18329000000000001</v>
@@ -2264,7 +2294,8 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>5.8889999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.5611966301220332E-2</v>
       </c>
       <c r="H32">
         <v>0.16722000000000001</v>
@@ -2314,6 +2345,7 @@
         <v>1</v>
       </c>
       <c r="G33">
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>0</v>
       </c>
       <c r="H33">
@@ -2364,7 +2396,8 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>6.173E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.8138439792296839E-2</v>
       </c>
       <c r="H34">
         <v>0.16722000000000001</v>
@@ -2414,7 +2447,8 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>6.173E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.8138439792296839E-2</v>
       </c>
       <c r="H35">
         <v>0.16722000000000001</v>
@@ -2464,7 +2498,8 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>6.0560000000000003E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.709989010572581E-2</v>
       </c>
       <c r="H36">
         <v>0.16722000000000001</v>
@@ -2514,7 +2549,8 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0.10677</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>9.6470415388746025E-2</v>
       </c>
       <c r="H37">
         <v>0.16722000000000001</v>
@@ -2567,7 +2603,8 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>4.7759999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.5581823587946886E-2</v>
       </c>
       <c r="H38">
         <v>0.19714000000000001</v>
@@ -2617,7 +2654,8 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>4.7759999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.5581823587946886E-2</v>
       </c>
       <c r="H39">
         <v>0.19714000000000001</v>
@@ -2667,7 +2705,8 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>4.7759999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.5581823587946886E-2</v>
       </c>
       <c r="H40">
         <v>0.19714000000000001</v>
@@ -2717,7 +2756,8 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>4.7759999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.5581823587946886E-2</v>
       </c>
       <c r="H41">
         <v>0.19714000000000001</v>
@@ -2767,7 +2807,8 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>4.7759999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.5581823587946886E-2</v>
       </c>
       <c r="H42">
         <v>0.19714000000000001</v>
@@ -2817,7 +2858,8 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>4.7759999999999997E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.5581823587946886E-2</v>
       </c>
       <c r="H43">
         <v>0.19714000000000001</v>
@@ -2864,7 +2906,8 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>9.6920000000000006E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>8.8360016559493881E-2</v>
       </c>
       <c r="H44">
         <v>0.17307</v>
@@ -2908,7 +2951,8 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>9.6920000000000006E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>8.8360016559493881E-2</v>
       </c>
       <c r="H45">
         <v>0.17307</v>
@@ -2952,7 +2996,8 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>9.6920000000000006E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>8.8360016559493881E-2</v>
       </c>
       <c r="H46">
         <v>0.17307</v>
@@ -2996,7 +3041,8 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>9.6920000000000006E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>8.8360016559493881E-2</v>
       </c>
       <c r="H47">
         <v>0.17307</v>
@@ -3040,7 +3086,8 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>9.6920000000000006E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>8.8360016559493881E-2</v>
       </c>
       <c r="H48">
         <v>0.17307</v>
@@ -3084,7 +3131,8 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>9.6920000000000006E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>8.8360016559493881E-2</v>
       </c>
       <c r="H49">
         <v>0.17307</v>
@@ -3131,7 +3179,8 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0.15548000000000001</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>0.13455774808129833</v>
       </c>
       <c r="H50">
         <v>0.22885</v>
@@ -3175,7 +3224,8 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>6.6299999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.2179155510335961E-2</v>
       </c>
       <c r="H51">
         <v>0.22885</v>
@@ -3219,7 +3269,8 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0.15548000000000001</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>0.13455774808129833</v>
       </c>
       <c r="H52">
         <v>0.22885</v>
@@ -3263,7 +3314,8 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>6.7479999999999998E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.3211137327391684E-2</v>
       </c>
       <c r="H53">
         <v>0.22885</v>
@@ -3307,7 +3359,8 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>2.2929999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>2.2420721859760049E-2</v>
       </c>
       <c r="H54">
         <v>0.22885</v>
@@ -3351,7 +3404,8 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0.10184</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>9.2424569424291184E-2</v>
       </c>
       <c r="H55">
         <v>0.22885</v>
@@ -3398,7 +3452,8 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>8.6480000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.9593023544939523E-2</v>
       </c>
       <c r="H56">
         <v>0.20355000000000001</v>
@@ -3442,7 +3497,8 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>8.6480000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.9593023544939523E-2</v>
       </c>
       <c r="H57">
         <v>0.20355000000000001</v>
@@ -3486,7 +3542,8 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>8.6480000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.9593023544939523E-2</v>
       </c>
       <c r="H58">
         <v>0.20355000000000001</v>
@@ -3530,7 +3587,8 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>8.6480000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.9593023544939523E-2</v>
       </c>
       <c r="H59">
         <v>0.20355000000000001</v>
@@ -3574,7 +3632,8 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>8.6480000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.9593023544939523E-2</v>
       </c>
       <c r="H60">
         <v>0.20355000000000001</v>
@@ -3618,7 +3677,8 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>8.6480000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.9593023544939523E-2</v>
       </c>
       <c r="H61">
         <v>0.20355000000000001</v>
@@ -3665,7 +3725,8 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>7.8049999999999994E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.2400141911274696E-2</v>
       </c>
       <c r="H62">
         <v>0.22453999999999999</v>
@@ -3709,7 +3770,8 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>7.8049999999999994E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.2400141911274696E-2</v>
       </c>
       <c r="H63">
         <v>0.22453999999999999</v>
@@ -3753,7 +3815,8 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>7.8049999999999994E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.2400141911274696E-2</v>
       </c>
       <c r="H64">
         <v>0.22453999999999999</v>
@@ -3797,7 +3860,8 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>7.8049999999999994E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.2400141911274696E-2</v>
       </c>
       <c r="H65">
         <v>0.22453999999999999</v>
@@ -3841,7 +3905,8 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>7.8049999999999994E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.2400141911274696E-2</v>
       </c>
       <c r="H66">
         <v>0.22453999999999999</v>
@@ -3885,7 +3950,8 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>7.8049999999999994E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.2400141911274696E-2</v>
       </c>
       <c r="H67">
         <v>0.22453999999999999</v>
@@ -3932,7 +3998,8 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>6.9159999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.4690539324527618E-2</v>
       </c>
       <c r="H68">
         <v>0.17308999999999999</v>
@@ -3976,7 +4043,8 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>6.9159999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.4690539324527618E-2</v>
       </c>
       <c r="H69">
         <v>0.17308999999999999</v>
@@ -4020,7 +4088,8 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>6.9159999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.4690539324527618E-2</v>
       </c>
       <c r="H70">
         <v>0.17308999999999999</v>
@@ -4064,7 +4133,8 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>6.9159999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.4690539324527618E-2</v>
       </c>
       <c r="H71">
         <v>0.17308999999999999</v>
@@ -4108,7 +4178,8 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>6.9159999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.4690539324527618E-2</v>
       </c>
       <c r="H72">
         <v>0.17308999999999999</v>
@@ -4152,7 +4223,8 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>8.8880000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>8.16286949925938E-2</v>
       </c>
       <c r="H73">
         <v>0.17308999999999999</v>
@@ -4199,7 +4271,8 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>6.6919999999999993E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.2725522987902821E-2</v>
       </c>
       <c r="H74">
         <v>0.16575000000000001</v>
@@ -4243,7 +4316,8 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>6.6919999999999993E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.2725522987902821E-2</v>
       </c>
       <c r="H75">
         <v>0.16575000000000001</v>
@@ -4287,7 +4361,8 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>6.6919999999999993E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.2725522987902821E-2</v>
       </c>
       <c r="H76">
         <v>0.16575000000000001</v>
@@ -4331,7 +4406,8 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>6.6919999999999993E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.2725522987902821E-2</v>
       </c>
       <c r="H77">
         <v>0.16575000000000001</v>
@@ -4375,7 +4451,8 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>6.6919999999999993E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.2725522987902821E-2</v>
       </c>
       <c r="H78">
         <v>0.16575000000000001</v>
@@ -4419,7 +4496,8 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>6.6919999999999993E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.2725522987902821E-2</v>
       </c>
       <c r="H79">
         <v>0.16575000000000001</v>
@@ -4466,7 +4544,8 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>4.7879999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.5688452440227817E-2</v>
       </c>
       <c r="H80">
         <v>0.15779000000000001</v>
@@ -4510,7 +4589,8 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>4.7879999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.5688452440227817E-2</v>
       </c>
       <c r="H81">
         <v>0.15779000000000001</v>
@@ -4554,7 +4634,8 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>4.7879999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>4.5688452440227817E-2</v>
       </c>
       <c r="H82">
         <v>0.15779000000000001</v>
@@ -4598,7 +4679,8 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>6.3E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.9267027649503583E-2</v>
       </c>
       <c r="H83">
         <v>0.15779000000000001</v>
@@ -4642,7 +4724,8 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>6.3E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.9267027649503583E-2</v>
       </c>
       <c r="H84">
         <v>0.15779000000000001</v>
@@ -4686,7 +4769,8 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>6.3E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.9267027649503583E-2</v>
       </c>
       <c r="H85">
         <v>0.15779000000000001</v>
@@ -4733,7 +4817,8 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>9.1730000000000006E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>8.4025438874397382E-2</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -4777,7 +4862,8 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>9.468E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>8.6489070553715283E-2</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4821,7 +4907,8 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>9.468E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>8.6489070553715283E-2</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4865,7 +4952,8 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>9.468E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>8.6489070553715283E-2</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4909,7 +4997,8 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>9.468E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>8.6489070553715283E-2</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4953,7 +5042,8 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>9.468E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>8.6489070553715283E-2</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -5000,7 +5090,8 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>7.0050000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.5462575460286249E-2</v>
       </c>
       <c r="H92">
         <v>0.21643999999999999</v>
@@ -5044,7 +5135,8 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>7.0050000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.5462575460286249E-2</v>
       </c>
       <c r="H93">
         <v>0.21643999999999999</v>
@@ -5088,7 +5180,8 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>7.0050000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.5462575460286249E-2</v>
       </c>
       <c r="H94">
         <v>0.21643999999999999</v>
@@ -5132,7 +5225,8 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>7.0050000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.5462575460286249E-2</v>
       </c>
       <c r="H95">
         <v>0.21643999999999999</v>
@@ -5176,7 +5270,8 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>7.2510000000000005E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.76035907647871E-2</v>
       </c>
       <c r="H96">
         <v>0.21643999999999999</v>
@@ -5220,7 +5315,8 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>7.0050000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.5462575460286249E-2</v>
       </c>
       <c r="H97">
         <v>0.21643999999999999</v>
@@ -5267,7 +5363,8 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>6.7650000000000002E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.3362685344614519E-2</v>
       </c>
       <c r="H98">
         <v>0.21853</v>
@@ -5311,7 +5408,8 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>8.3080000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.6708708439243947E-2</v>
       </c>
       <c r="H99">
         <v>0.21853</v>
@@ -5355,7 +5453,8 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>6.7650000000000002E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.3362685344614519E-2</v>
       </c>
       <c r="H100">
         <v>0.21853</v>
@@ -5399,7 +5498,8 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>6.8489999999999995E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.4095929115946415E-2</v>
       </c>
       <c r="H101">
         <v>0.21853</v>
@@ -5443,7 +5543,8 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>8.405E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>7.753308566938337E-2</v>
       </c>
       <c r="H102">
         <v>0.21853</v>
@@ -5487,7 +5588,8 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>6.8489999999999995E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.4095929115946415E-2</v>
       </c>
       <c r="H103">
         <v>0.21853</v>
@@ -5534,7 +5636,8 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>7.3419999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.8402166247293866E-2</v>
       </c>
       <c r="H104">
         <v>0.16816</v>
@@ -5578,7 +5681,8 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>7.3419999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.8402166247293866E-2</v>
       </c>
       <c r="H105">
         <v>0.16816</v>
@@ -5622,7 +5726,8 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>7.3419999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.8402166247293866E-2</v>
       </c>
       <c r="H106">
         <v>0.16816</v>
@@ -5666,7 +5771,8 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>7.3419999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.8402166247293866E-2</v>
       </c>
       <c r="H107">
         <v>0.16816</v>
@@ -5710,7 +5816,8 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>7.3419999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.8402166247293866E-2</v>
       </c>
       <c r="H108">
         <v>0.16816</v>
@@ -5754,7 +5861,8 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>7.3419999999999999E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>6.8402166247293866E-2</v>
       </c>
       <c r="H109">
         <v>0.16816</v>
@@ -5801,7 +5909,8 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>5.9400000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.6073261004550387E-2</v>
       </c>
       <c r="H110">
         <v>0.22144</v>
@@ -5845,7 +5954,8 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>5.9400000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.6073261004550387E-2</v>
       </c>
       <c r="H111">
         <v>0.22144</v>
@@ -5889,7 +5999,8 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>5.9400000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.6073261004550387E-2</v>
       </c>
       <c r="H112">
         <v>0.22144</v>
@@ -5933,7 +6044,8 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>5.9400000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.6073261004550387E-2</v>
       </c>
       <c r="H113">
         <v>0.22144</v>
@@ -5977,7 +6089,8 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>5.9400000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.6073261004550387E-2</v>
       </c>
       <c r="H114">
         <v>0.22144</v>
@@ -6021,7 +6134,8 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>5.9400000000000001E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.6073261004550387E-2</v>
       </c>
       <c r="H115">
         <v>0.22144</v>
@@ -6068,7 +6182,8 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>5.8200000000000002E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.499945109873957E-2</v>
       </c>
       <c r="H116">
         <v>0.17419999999999999</v>
@@ -6112,7 +6227,8 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>5.8200000000000002E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.499945109873957E-2</v>
       </c>
       <c r="H117">
         <v>0.17419999999999999</v>
@@ -6156,7 +6272,8 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>5.8200000000000002E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.499945109873957E-2</v>
       </c>
       <c r="H118">
         <v>0.17419999999999999</v>
@@ -6200,7 +6317,8 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>5.8200000000000002E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.499945109873957E-2</v>
       </c>
       <c r="H119">
         <v>0.17419999999999999</v>
@@ -6244,7 +6362,8 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>5.8200000000000002E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.499945109873957E-2</v>
       </c>
       <c r="H120">
         <v>0.17419999999999999</v>
@@ -6288,7 +6407,8 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>5.8200000000000002E-2</v>
+        <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
+        <v>5.499945109873957E-2</v>
       </c>
       <c r="H121">
         <v>0.17419999999999999</v>

--- a/Results/Final Results/Samples/900Scen/Results_Sample900_07.xlsx
+++ b/Results/Final Results/Samples/900Scen/Results_Sample900_07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\bachelor-thesis\Results\Final Results\Samples\900Scen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0912AA36-9C39-411B-AECE-A22962B31909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96743772-5E63-4636-A85B-5A6C419564DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestingFile" sheetId="2" r:id="rId1"/>
@@ -264,7 +264,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,10 +297,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,11 +309,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -350,11 +367,11 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Step Size Rule" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Iterations" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Converged?" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Gap LR" queryTableFieldId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Gap LR" queryTableFieldId="6" dataDxfId="1" dataCellStyle="Prozent"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Gap Naive" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Obj. Naive" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Obj. LR" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Gap" queryTableFieldId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Gap" queryTableFieldId="10" dataDxfId="0" dataCellStyle="Prozent"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Time Naive" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Time LR" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Final Lambda" queryTableFieldId="13"/>
@@ -664,7 +681,7 @@
   <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -674,11 +691,11 @@
     <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
@@ -707,7 +724,7 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
@@ -719,7 +736,7 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L1" t="s">
@@ -763,7 +780,7 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.7097603813332791E-2</v>
       </c>
@@ -776,7 +793,7 @@
       <c r="J2">
         <v>267.54969</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>7.7100000000000002E-2</v>
       </c>
       <c r="L2">
@@ -808,7 +825,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.7097603813332791E-2</v>
       </c>
@@ -821,7 +838,7 @@
       <c r="J3">
         <v>267.54969</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>7.7100000000000002E-2</v>
       </c>
       <c r="L3">
@@ -862,7 +879,7 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.7097603813332791E-2</v>
       </c>
@@ -875,7 +892,7 @@
       <c r="J4">
         <v>267.54969</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>7.7100000000000002E-2</v>
       </c>
       <c r="L4">
@@ -913,7 +930,7 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.7097603813332791E-2</v>
       </c>
@@ -926,7 +943,7 @@
       <c r="J5">
         <v>267.54969</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>7.7100000000000002E-2</v>
       </c>
       <c r="L5">
@@ -964,7 +981,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.7097603813332791E-2</v>
       </c>
@@ -977,7 +994,7 @@
       <c r="J6">
         <v>267.54969</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>7.7100000000000002E-2</v>
       </c>
       <c r="L6">
@@ -1015,7 +1032,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.7097603813332791E-2</v>
       </c>
@@ -1028,7 +1045,7 @@
       <c r="J7">
         <v>267.54969</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>7.7100000000000002E-2</v>
       </c>
       <c r="L7">
@@ -1069,7 +1086,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.9868466321121437E-2</v>
       </c>
@@ -1082,7 +1099,7 @@
       <c r="J8">
         <v>264.06772999999998</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>5.987E-2</v>
       </c>
       <c r="L8">
@@ -1120,7 +1137,7 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.9868466321121437E-2</v>
       </c>
@@ -1133,7 +1150,7 @@
       <c r="J9">
         <v>264.06772999999998</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>5.987E-2</v>
       </c>
       <c r="L9">
@@ -1165,7 +1182,7 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.9868466321121437E-2</v>
       </c>
@@ -1178,7 +1195,7 @@
       <c r="J10">
         <v>264.06772999999998</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>5.987E-2</v>
       </c>
       <c r="L10">
@@ -1210,7 +1227,7 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.9868466321121437E-2</v>
       </c>
@@ -1223,7 +1240,7 @@
       <c r="J11">
         <v>264.06772999999998</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>5.987E-2</v>
       </c>
       <c r="L11">
@@ -1264,7 +1281,7 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.9868466321121437E-2</v>
       </c>
@@ -1277,7 +1294,7 @@
       <c r="J12">
         <v>264.06772999999998</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>5.987E-2</v>
       </c>
       <c r="L12">
@@ -1309,7 +1326,7 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.9868466321121437E-2</v>
       </c>
@@ -1322,7 +1339,7 @@
       <c r="J13">
         <v>264.06772999999998</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>5.987E-2</v>
       </c>
       <c r="L13">
@@ -1366,7 +1383,7 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.0804689688287847E-2</v>
       </c>
@@ -1379,7 +1396,7 @@
       <c r="J14">
         <v>268.65325000000001</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>7.0800000000000002E-2</v>
       </c>
       <c r="L14">
@@ -1417,7 +1434,7 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.0655422115549621E-2</v>
       </c>
@@ -1430,7 +1447,7 @@
       <c r="J15">
         <v>268.61009999999999</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>7.0660000000000001E-2</v>
       </c>
       <c r="L15">
@@ -1468,7 +1485,7 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.0804689688287847E-2</v>
       </c>
@@ -1481,7 +1498,7 @@
       <c r="J16">
         <v>268.65325000000001</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>7.0800000000000002E-2</v>
       </c>
       <c r="L16">
@@ -1519,7 +1536,7 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.0804689688287847E-2</v>
       </c>
@@ -1532,7 +1549,7 @@
       <c r="J17">
         <v>268.65325000000001</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>7.0800000000000002E-2</v>
       </c>
       <c r="L17">
@@ -1570,7 +1587,7 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.0804689688287847E-2</v>
       </c>
@@ -1583,7 +1600,7 @@
       <c r="J18">
         <v>268.65325000000001</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>7.0800000000000002E-2</v>
       </c>
       <c r="L18">
@@ -1621,7 +1638,7 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.0804689688287847E-2</v>
       </c>
@@ -1634,7 +1651,7 @@
       <c r="J19">
         <v>268.65325000000001</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>7.0800000000000002E-2</v>
       </c>
       <c r="L19">
@@ -1675,7 +1692,7 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.1137793991142733E-2</v>
       </c>
@@ -1688,7 +1705,7 @@
       <c r="J20">
         <v>265.77798999999999</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>6.114E-2</v>
       </c>
       <c r="L20">
@@ -1726,7 +1743,7 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.1137793991142733E-2</v>
       </c>
@@ -1739,7 +1756,7 @@
       <c r="J21">
         <v>265.77798999999999</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>6.114E-2</v>
       </c>
       <c r="L21">
@@ -1777,7 +1794,7 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.1137793991142733E-2</v>
       </c>
@@ -1790,7 +1807,7 @@
       <c r="J22">
         <v>265.77798999999999</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>6.114E-2</v>
       </c>
       <c r="L22">
@@ -1828,7 +1845,7 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.1137793991142733E-2</v>
       </c>
@@ -1841,7 +1858,7 @@
       <c r="J23">
         <v>265.77798999999999</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <v>6.114E-2</v>
       </c>
       <c r="L23">
@@ -1879,7 +1896,7 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.1137793991142733E-2</v>
       </c>
@@ -1892,7 +1909,7 @@
       <c r="J24">
         <v>265.77798999999999</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>6.114E-2</v>
       </c>
       <c r="L24">
@@ -1930,7 +1947,7 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.1137793991142733E-2</v>
       </c>
@@ -1943,7 +1960,7 @@
       <c r="J25">
         <v>265.77798999999999</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>6.114E-2</v>
       </c>
       <c r="L25">
@@ -1984,7 +2001,7 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.2354367602611255E-2</v>
       </c>
@@ -1997,7 +2014,7 @@
       <c r="J26">
         <v>259.07199000000003</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>7.2349999999999998E-2</v>
       </c>
       <c r="L26">
@@ -2035,7 +2052,7 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.2354367602611255E-2</v>
       </c>
@@ -2048,7 +2065,7 @@
       <c r="J27">
         <v>259.07199000000003</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>7.2349999999999998E-2</v>
       </c>
       <c r="L27">
@@ -2086,7 +2103,7 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.2354367602611255E-2</v>
       </c>
@@ -2099,7 +2116,7 @@
       <c r="J28">
         <v>259.07199000000003</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>7.2349999999999998E-2</v>
       </c>
       <c r="L28">
@@ -2137,7 +2154,7 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.2354367602611255E-2</v>
       </c>
@@ -2150,7 +2167,7 @@
       <c r="J29">
         <v>259.07199000000003</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>7.2349999999999998E-2</v>
       </c>
       <c r="L29">
@@ -2188,7 +2205,7 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.2354367602611255E-2</v>
       </c>
@@ -2201,7 +2218,7 @@
       <c r="J30">
         <v>259.07199000000003</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <v>7.2349999999999998E-2</v>
       </c>
       <c r="L30">
@@ -2239,7 +2256,7 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.2354367602611255E-2</v>
       </c>
@@ -2252,7 +2269,7 @@
       <c r="J31">
         <v>259.07199000000003</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <v>7.2349999999999998E-2</v>
       </c>
       <c r="L31">
@@ -2293,7 +2310,7 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.5611966301220332E-2</v>
       </c>
@@ -2306,7 +2323,7 @@
       <c r="J32">
         <v>263.47422999999998</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>5.561E-2</v>
       </c>
       <c r="L32">
@@ -2344,7 +2361,7 @@
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>0</v>
       </c>
@@ -2357,7 +2374,7 @@
       <c r="J33">
         <v>248.82191</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33">
@@ -2395,7 +2412,7 @@
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.8138439792296839E-2</v>
       </c>
@@ -2408,7 +2425,7 @@
       <c r="J34">
         <v>264.18097999999998</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <v>5.8139999999999997E-2</v>
       </c>
       <c r="L34">
@@ -2446,7 +2463,7 @@
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.8138439792296839E-2</v>
       </c>
@@ -2459,7 +2476,7 @@
       <c r="J35">
         <v>264.18097999999998</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <v>5.8139999999999997E-2</v>
       </c>
       <c r="L35">
@@ -2497,7 +2514,7 @@
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.709989010572581E-2</v>
       </c>
@@ -2510,7 +2527,7 @@
       <c r="J36">
         <v>263.89</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
         <v>5.7099999999999998E-2</v>
       </c>
       <c r="L36">
@@ -2548,7 +2565,7 @@
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>9.6470415388746025E-2</v>
       </c>
@@ -2561,7 +2578,7 @@
       <c r="J37">
         <v>275.38878</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="3">
         <v>9.647E-2</v>
       </c>
       <c r="L37">
@@ -2602,7 +2619,7 @@
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>4.5581823587946886E-2</v>
       </c>
@@ -2615,7 +2632,7 @@
       <c r="J38">
         <v>260.94963000000001</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <v>4.5580000000000002E-2</v>
       </c>
       <c r="L38">
@@ -2653,7 +2670,7 @@
       <c r="F39">
         <v>0</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>4.5581823587946886E-2</v>
       </c>
@@ -2666,7 +2683,7 @@
       <c r="J39">
         <v>260.94963000000001</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="3">
         <v>4.5580000000000002E-2</v>
       </c>
       <c r="L39">
@@ -2704,7 +2721,7 @@
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>4.5581823587946886E-2</v>
       </c>
@@ -2717,7 +2734,7 @@
       <c r="J40">
         <v>260.94963000000001</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <v>4.5580000000000002E-2</v>
       </c>
       <c r="L40">
@@ -2755,7 +2772,7 @@
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>4.5581823587946886E-2</v>
       </c>
@@ -2768,7 +2785,7 @@
       <c r="J41">
         <v>260.94963000000001</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <v>4.5580000000000002E-2</v>
       </c>
       <c r="L41">
@@ -2806,7 +2823,7 @@
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>4.5581823587946886E-2</v>
       </c>
@@ -2819,7 +2836,7 @@
       <c r="J42">
         <v>260.94963000000001</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <v>4.5580000000000002E-2</v>
       </c>
       <c r="L42">
@@ -2857,7 +2874,7 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>4.5581823587946886E-2</v>
       </c>
@@ -2870,7 +2887,7 @@
       <c r="J43">
         <v>260.94963000000001</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <v>4.5580000000000002E-2</v>
       </c>
       <c r="L43">
@@ -2905,7 +2922,7 @@
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>8.8360016559493881E-2</v>
       </c>
@@ -2918,7 +2935,7 @@
       <c r="J44">
         <v>268.05167</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="3">
         <v>8.8359999999999994E-2</v>
       </c>
       <c r="L44">
@@ -2950,7 +2967,7 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>8.8360016559493881E-2</v>
       </c>
@@ -2963,7 +2980,7 @@
       <c r="J45">
         <v>268.05167</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <v>8.8359999999999994E-2</v>
       </c>
       <c r="L45">
@@ -2995,7 +3012,7 @@
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>8.8360016559493881E-2</v>
       </c>
@@ -3008,7 +3025,7 @@
       <c r="J46">
         <v>268.05167</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="3">
         <v>8.8359999999999994E-2</v>
       </c>
       <c r="L46">
@@ -3040,7 +3057,7 @@
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>8.8360016559493881E-2</v>
       </c>
@@ -3053,7 +3070,7 @@
       <c r="J47">
         <v>268.05167</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <v>8.8359999999999994E-2</v>
       </c>
       <c r="L47">
@@ -3085,7 +3102,7 @@
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>8.8360016559493881E-2</v>
       </c>
@@ -3098,7 +3115,7 @@
       <c r="J48">
         <v>268.05167</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="3">
         <v>8.8359999999999994E-2</v>
       </c>
       <c r="L48">
@@ -3130,7 +3147,7 @@
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>8.8360016559493881E-2</v>
       </c>
@@ -3143,7 +3160,7 @@
       <c r="J49">
         <v>268.05167</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <v>8.8359999999999994E-2</v>
       </c>
       <c r="L49">
@@ -3178,7 +3195,7 @@
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>0.13455774808129833</v>
       </c>
@@ -3191,7 +3208,7 @@
       <c r="J50">
         <v>284.49837000000002</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="3">
         <v>0.13456000000000001</v>
       </c>
       <c r="L50">
@@ -3223,7 +3240,7 @@
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.2179155510335961E-2</v>
       </c>
@@ -3236,7 +3253,7 @@
       <c r="J51">
         <v>262.54151999999999</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="3">
         <v>6.2179999999999999E-2</v>
       </c>
       <c r="L51">
@@ -3268,7 +3285,7 @@
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>0.13455774808129833</v>
       </c>
@@ -3281,7 +3298,7 @@
       <c r="J52">
         <v>284.49837000000002</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="3">
         <v>0.13456000000000001</v>
       </c>
       <c r="L52">
@@ -3313,7 +3330,7 @@
       <c r="F53">
         <v>0</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.3211137327391684E-2</v>
       </c>
@@ -3326,7 +3343,7 @@
       <c r="J53">
         <v>262.83073999999999</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="3">
         <v>6.3210000000000002E-2</v>
       </c>
       <c r="L53">
@@ -3358,7 +3375,7 @@
       <c r="F54">
         <v>0</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>2.2420721859760049E-2</v>
       </c>
@@ -3371,7 +3388,7 @@
       <c r="J54">
         <v>251.86387999999999</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="3">
         <v>2.2419999999999999E-2</v>
       </c>
       <c r="L54">
@@ -3403,7 +3420,7 @@
       <c r="F55">
         <v>0</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>9.2424569424291184E-2</v>
       </c>
@@ -3416,7 +3433,7 @@
       <c r="J55">
         <v>271.29084999999998</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="3">
         <v>9.2420000000000002E-2</v>
       </c>
       <c r="L55">
@@ -3451,7 +3468,7 @@
       <c r="F56">
         <v>0</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.9593023544939523E-2</v>
       </c>
@@ -3464,7 +3481,7 @@
       <c r="J56">
         <v>267.44643000000002</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="3">
         <v>7.9589999999999994E-2</v>
       </c>
       <c r="L56">
@@ -3496,7 +3513,7 @@
       <c r="F57">
         <v>0</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.9593023544939523E-2</v>
       </c>
@@ -3509,7 +3526,7 @@
       <c r="J57">
         <v>267.44643000000002</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="3">
         <v>7.9589999999999994E-2</v>
       </c>
       <c r="L57">
@@ -3541,7 +3558,7 @@
       <c r="F58">
         <v>0</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.9593023544939523E-2</v>
       </c>
@@ -3554,7 +3571,7 @@
       <c r="J58">
         <v>267.44643000000002</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="3">
         <v>7.9589999999999994E-2</v>
       </c>
       <c r="L58">
@@ -3586,7 +3603,7 @@
       <c r="F59">
         <v>0</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.9593023544939523E-2</v>
       </c>
@@ -3599,7 +3616,7 @@
       <c r="J59">
         <v>267.44643000000002</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="3">
         <v>7.9589999999999994E-2</v>
       </c>
       <c r="L59">
@@ -3631,7 +3648,7 @@
       <c r="F60">
         <v>0</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.9593023544939523E-2</v>
       </c>
@@ -3644,7 +3661,7 @@
       <c r="J60">
         <v>267.44643000000002</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="3">
         <v>7.9589999999999994E-2</v>
       </c>
       <c r="L60">
@@ -3676,7 +3693,7 @@
       <c r="F61">
         <v>0</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.9593023544939523E-2</v>
       </c>
@@ -3689,7 +3706,7 @@
       <c r="J61">
         <v>267.44643000000002</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="3">
         <v>7.9589999999999994E-2</v>
       </c>
       <c r="L61">
@@ -3724,7 +3741,7 @@
       <c r="F62">
         <v>0</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.2400141911274696E-2</v>
       </c>
@@ -3737,7 +3754,7 @@
       <c r="J62">
         <v>268.98496999999998</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="3">
         <v>7.2400000000000006E-2</v>
       </c>
       <c r="L62">
@@ -3769,7 +3786,7 @@
       <c r="F63">
         <v>0</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.2400141911274696E-2</v>
       </c>
@@ -3782,7 +3799,7 @@
       <c r="J63">
         <v>268.98496999999998</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="3">
         <v>7.2400000000000006E-2</v>
       </c>
       <c r="L63">
@@ -3814,7 +3831,7 @@
       <c r="F64">
         <v>0</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.2400141911274696E-2</v>
       </c>
@@ -3827,7 +3844,7 @@
       <c r="J64">
         <v>268.98496999999998</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="3">
         <v>7.2400000000000006E-2</v>
       </c>
       <c r="L64">
@@ -3859,7 +3876,7 @@
       <c r="F65">
         <v>0</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.2400141911274696E-2</v>
       </c>
@@ -3872,7 +3889,7 @@
       <c r="J65">
         <v>268.98496999999998</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="3">
         <v>7.2400000000000006E-2</v>
       </c>
       <c r="L65">
@@ -3904,7 +3921,7 @@
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.2400141911274696E-2</v>
       </c>
@@ -3917,7 +3934,7 @@
       <c r="J66">
         <v>268.98496999999998</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="3">
         <v>7.2400000000000006E-2</v>
       </c>
       <c r="L66">
@@ -3949,7 +3966,7 @@
       <c r="F67">
         <v>0</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.2400141911274696E-2</v>
       </c>
@@ -3962,7 +3979,7 @@
       <c r="J67">
         <v>268.98496999999998</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="3">
         <v>7.2400000000000006E-2</v>
       </c>
       <c r="L67">
@@ -3997,7 +4014,7 @@
       <c r="F68">
         <v>0</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.4690539324527618E-2</v>
       </c>
@@ -4010,7 +4027,7 @@
       <c r="J68">
         <v>265.03318999999999</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="3">
         <v>6.4689999999999998E-2</v>
       </c>
       <c r="L68">
@@ -4042,7 +4059,7 @@
       <c r="F69">
         <v>0</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.4690539324527618E-2</v>
       </c>
@@ -4055,7 +4072,7 @@
       <c r="J69">
         <v>265.03318999999999</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="3">
         <v>6.4689999999999998E-2</v>
       </c>
       <c r="L69">
@@ -4087,7 +4104,7 @@
       <c r="F70">
         <v>0</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.4690539324527618E-2</v>
       </c>
@@ -4100,7 +4117,7 @@
       <c r="J70">
         <v>265.03318999999999</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="3">
         <v>6.4689999999999998E-2</v>
       </c>
       <c r="L70">
@@ -4132,7 +4149,7 @@
       <c r="F71">
         <v>0</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.4690539324527618E-2</v>
       </c>
@@ -4145,7 +4162,7 @@
       <c r="J71">
         <v>265.03318999999999</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="3">
         <v>6.4689999999999998E-2</v>
       </c>
       <c r="L71">
@@ -4177,7 +4194,7 @@
       <c r="F72">
         <v>0</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.4690539324527618E-2</v>
       </c>
@@ -4190,7 +4207,7 @@
       <c r="J72">
         <v>265.03318999999999</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="3">
         <v>6.4689999999999998E-2</v>
       </c>
       <c r="L72">
@@ -4222,7 +4239,7 @@
       <c r="F73">
         <v>0</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>8.16286949925938E-2</v>
       </c>
@@ -4235,7 +4252,7 @@
       <c r="J73">
         <v>269.92138</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="3">
         <v>8.1629999999999994E-2</v>
       </c>
       <c r="L73">
@@ -4270,7 +4287,7 @@
       <c r="F74">
         <v>0</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.2725522987902821E-2</v>
       </c>
@@ -4283,7 +4300,7 @@
       <c r="J74">
         <v>266.15911999999997</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="3">
         <v>6.2729999999999994E-2</v>
       </c>
       <c r="L74">
@@ -4315,7 +4332,7 @@
       <c r="F75">
         <v>0</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.2725522987902821E-2</v>
       </c>
@@ -4328,7 +4345,7 @@
       <c r="J75">
         <v>266.15911999999997</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="3">
         <v>6.2729999999999994E-2</v>
       </c>
       <c r="L75">
@@ -4360,7 +4377,7 @@
       <c r="F76">
         <v>0</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.2725522987902821E-2</v>
       </c>
@@ -4373,7 +4390,7 @@
       <c r="J76">
         <v>266.15911999999997</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="3">
         <v>6.2729999999999994E-2</v>
       </c>
       <c r="L76">
@@ -4405,7 +4422,7 @@
       <c r="F77">
         <v>0</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.2725522987902821E-2</v>
       </c>
@@ -4418,7 +4435,7 @@
       <c r="J77">
         <v>266.15911999999997</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="3">
         <v>6.2729999999999994E-2</v>
       </c>
       <c r="L77">
@@ -4450,7 +4467,7 @@
       <c r="F78">
         <v>0</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.2725522987902821E-2</v>
       </c>
@@ -4463,7 +4480,7 @@
       <c r="J78">
         <v>266.15911999999997</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="3">
         <v>6.2729999999999994E-2</v>
       </c>
       <c r="L78">
@@ -4495,7 +4512,7 @@
       <c r="F79">
         <v>0</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.2725522987902821E-2</v>
       </c>
@@ -4508,7 +4525,7 @@
       <c r="J79">
         <v>266.15911999999997</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="3">
         <v>6.2729999999999994E-2</v>
       </c>
       <c r="L79">
@@ -4543,7 +4560,7 @@
       <c r="F80">
         <v>0</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>4.5688452440227817E-2</v>
       </c>
@@ -4556,7 +4573,7 @@
       <c r="J80">
         <v>263.96078999999997</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="3">
         <v>4.5690000000000001E-2</v>
       </c>
       <c r="L80">
@@ -4588,7 +4605,7 @@
       <c r="F81">
         <v>0</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>4.5688452440227817E-2</v>
       </c>
@@ -4601,7 +4618,7 @@
       <c r="J81">
         <v>263.96078999999997</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="3">
         <v>4.5690000000000001E-2</v>
       </c>
       <c r="L81">
@@ -4633,7 +4650,7 @@
       <c r="F82">
         <v>0</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>4.5688452440227817E-2</v>
       </c>
@@ -4646,7 +4663,7 @@
       <c r="J82">
         <v>263.96078999999997</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="3">
         <v>4.5690000000000001E-2</v>
       </c>
       <c r="L82">
@@ -4678,7 +4695,7 @@
       <c r="F83">
         <v>0</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.9267027649503583E-2</v>
       </c>
@@ -4691,7 +4708,7 @@
       <c r="J83">
         <v>267.77080999999998</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="3">
         <v>5.9270000000000003E-2</v>
       </c>
       <c r="L83">
@@ -4723,7 +4740,7 @@
       <c r="F84">
         <v>0</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.9267027649503583E-2</v>
       </c>
@@ -4736,7 +4753,7 @@
       <c r="J84">
         <v>267.77080999999998</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="3">
         <v>5.9270000000000003E-2</v>
       </c>
       <c r="L84">
@@ -4768,7 +4785,7 @@
       <c r="F85">
         <v>0</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.9267027649503583E-2</v>
       </c>
@@ -4781,7 +4798,7 @@
       <c r="J85">
         <v>267.77080999999998</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="3">
         <v>5.9270000000000003E-2</v>
       </c>
       <c r="L85">
@@ -4816,7 +4833,7 @@
       <c r="F86">
         <v>0</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>8.4025438874397382E-2</v>
       </c>
@@ -4829,7 +4846,7 @@
       <c r="J86">
         <v>266.84514000000001</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="3">
         <v>8.4029999999999994E-2</v>
       </c>
       <c r="L86">
@@ -4861,7 +4878,7 @@
       <c r="F87">
         <v>0</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>8.6489070553715283E-2</v>
       </c>
@@ -4874,7 +4891,7 @@
       <c r="J87">
         <v>267.56479000000002</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="3">
         <v>8.6489999999999997E-2</v>
       </c>
       <c r="L87">
@@ -4906,7 +4923,7 @@
       <c r="F88">
         <v>0</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>8.6489070553715283E-2</v>
       </c>
@@ -4919,7 +4936,7 @@
       <c r="J88">
         <v>267.56479000000002</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="3">
         <v>8.6489999999999997E-2</v>
       </c>
       <c r="L88">
@@ -4951,7 +4968,7 @@
       <c r="F89">
         <v>0</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>8.6489070553715283E-2</v>
       </c>
@@ -4964,7 +4981,7 @@
       <c r="J89">
         <v>267.56479000000002</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="3">
         <v>8.6489999999999997E-2</v>
       </c>
       <c r="L89">
@@ -4996,7 +5013,7 @@
       <c r="F90">
         <v>0</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>8.6489070553715283E-2</v>
       </c>
@@ -5009,7 +5026,7 @@
       <c r="J90">
         <v>267.56479000000002</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="3">
         <v>8.6489999999999997E-2</v>
       </c>
       <c r="L90">
@@ -5041,7 +5058,7 @@
       <c r="F91">
         <v>0</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>8.6489070553715283E-2</v>
       </c>
@@ -5054,7 +5071,7 @@
       <c r="J91">
         <v>267.56479000000002</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="3">
         <v>8.6489999999999997E-2</v>
       </c>
       <c r="L91">
@@ -5089,7 +5106,7 @@
       <c r="F92">
         <v>0</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.5462575460286249E-2</v>
       </c>
@@ -5102,7 +5119,7 @@
       <c r="J92">
         <v>266.59553</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="3">
         <v>6.5460000000000004E-2</v>
       </c>
       <c r="L92">
@@ -5134,7 +5151,7 @@
       <c r="F93">
         <v>0</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.5462575460286249E-2</v>
       </c>
@@ -5147,7 +5164,7 @@
       <c r="J93">
         <v>266.59553</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="3">
         <v>6.5460000000000004E-2</v>
       </c>
       <c r="L93">
@@ -5179,7 +5196,7 @@
       <c r="F94">
         <v>0</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.5462575460286249E-2</v>
       </c>
@@ -5192,7 +5209,7 @@
       <c r="J94">
         <v>266.59553</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="3">
         <v>6.5460000000000004E-2</v>
       </c>
       <c r="L94">
@@ -5224,7 +5241,7 @@
       <c r="F95">
         <v>0</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.5462575460286249E-2</v>
       </c>
@@ -5237,7 +5254,7 @@
       <c r="J95">
         <v>266.59553</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="3">
         <v>6.5460000000000004E-2</v>
       </c>
       <c r="L95">
@@ -5269,7 +5286,7 @@
       <c r="F96">
         <v>0</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.76035907647871E-2</v>
       </c>
@@ -5282,7 +5299,7 @@
       <c r="J96">
         <v>267.20769999999999</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="3">
         <v>6.7599999999999993E-2</v>
       </c>
       <c r="L96">
@@ -5314,7 +5331,7 @@
       <c r="F97">
         <v>0</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.5462575460286249E-2</v>
       </c>
@@ -5327,7 +5344,7 @@
       <c r="J97">
         <v>266.59553</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="3">
         <v>6.5460000000000004E-2</v>
       </c>
       <c r="L97">
@@ -5362,7 +5379,7 @@
       <c r="F98">
         <v>0</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.3362685344614519E-2</v>
       </c>
@@ -5375,7 +5392,7 @@
       <c r="J98">
         <v>264.53156000000001</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="3">
         <v>6.336E-2</v>
       </c>
       <c r="L98">
@@ -5407,7 +5424,7 @@
       <c r="F99">
         <v>0</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.6708708439243947E-2</v>
       </c>
@@ -5420,7 +5437,7 @@
       <c r="J99">
         <v>268.35532000000001</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="3">
         <v>7.671E-2</v>
       </c>
       <c r="L99">
@@ -5452,7 +5469,7 @@
       <c r="F100">
         <v>0</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.3362685344614519E-2</v>
       </c>
@@ -5465,7 +5482,7 @@
       <c r="J100">
         <v>264.53156000000001</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="3">
         <v>6.336E-2</v>
       </c>
       <c r="L100">
@@ -5497,7 +5514,7 @@
       <c r="F101">
         <v>0</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.4095929115946415E-2</v>
       </c>
@@ -5510,7 +5527,7 @@
       <c r="J101">
         <v>264.73881</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="3">
         <v>6.4100000000000004E-2</v>
       </c>
       <c r="L101">
@@ -5542,7 +5559,7 @@
       <c r="F102">
         <v>0</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>7.753308566938337E-2</v>
       </c>
@@ -5555,7 +5572,7 @@
       <c r="J102">
         <v>268.59514000000001</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="3">
         <v>7.7530000000000002E-2</v>
       </c>
       <c r="L102">
@@ -5587,7 +5604,7 @@
       <c r="F103">
         <v>0</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.4095929115946415E-2</v>
       </c>
@@ -5600,7 +5617,7 @@
       <c r="J103">
         <v>264.73881</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="3">
         <v>6.4100000000000004E-2</v>
       </c>
       <c r="L103">
@@ -5635,7 +5652,7 @@
       <c r="F104">
         <v>0</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.8402166247293866E-2</v>
       </c>
@@ -5648,7 +5665,7 @@
       <c r="J104">
         <v>266.37401999999997</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="3">
         <v>6.8400000000000002E-2</v>
       </c>
       <c r="L104">
@@ -5680,7 +5697,7 @@
       <c r="F105">
         <v>0</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.8402166247293866E-2</v>
       </c>
@@ -5693,7 +5710,7 @@
       <c r="J105">
         <v>266.37401999999997</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="3">
         <v>6.8400000000000002E-2</v>
       </c>
       <c r="L105">
@@ -5725,7 +5742,7 @@
       <c r="F106">
         <v>0</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.8402166247293866E-2</v>
       </c>
@@ -5738,7 +5755,7 @@
       <c r="J106">
         <v>266.37401999999997</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="3">
         <v>6.8400000000000002E-2</v>
       </c>
       <c r="L106">
@@ -5770,7 +5787,7 @@
       <c r="F107">
         <v>0</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.8402166247293866E-2</v>
       </c>
@@ -5783,7 +5800,7 @@
       <c r="J107">
         <v>266.37401999999997</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="3">
         <v>6.8400000000000002E-2</v>
       </c>
       <c r="L107">
@@ -5815,7 +5832,7 @@
       <c r="F108">
         <v>0</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.8402166247293866E-2</v>
       </c>
@@ -5828,7 +5845,7 @@
       <c r="J108">
         <v>266.37401999999997</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="3">
         <v>6.8400000000000002E-2</v>
       </c>
       <c r="L108">
@@ -5860,7 +5877,7 @@
       <c r="F109">
         <v>0</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>6.8402166247293866E-2</v>
       </c>
@@ -5873,7 +5890,7 @@
       <c r="J109">
         <v>266.37401999999997</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="3">
         <v>6.8400000000000002E-2</v>
       </c>
       <c r="L109">
@@ -5908,7 +5925,7 @@
       <c r="F110">
         <v>0</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.6073261004550387E-2</v>
       </c>
@@ -5921,7 +5938,7 @@
       <c r="J110">
         <v>267.14675999999997</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="3">
         <v>5.6070000000000002E-2</v>
       </c>
       <c r="L110">
@@ -5953,7 +5970,7 @@
       <c r="F111">
         <v>0</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.6073261004550387E-2</v>
       </c>
@@ -5966,7 +5983,7 @@
       <c r="J111">
         <v>267.14675999999997</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="3">
         <v>5.6070000000000002E-2</v>
       </c>
       <c r="L111">
@@ -5998,7 +6015,7 @@
       <c r="F112">
         <v>0</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.6073261004550387E-2</v>
       </c>
@@ -6011,7 +6028,7 @@
       <c r="J112">
         <v>267.14675999999997</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="3">
         <v>5.6070000000000002E-2</v>
       </c>
       <c r="L112">
@@ -6043,7 +6060,7 @@
       <c r="F113">
         <v>0</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.6073261004550387E-2</v>
       </c>
@@ -6056,7 +6073,7 @@
       <c r="J113">
         <v>267.14675999999997</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="3">
         <v>5.6070000000000002E-2</v>
       </c>
       <c r="L113">
@@ -6088,7 +6105,7 @@
       <c r="F114">
         <v>0</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.6073261004550387E-2</v>
       </c>
@@ -6101,7 +6118,7 @@
       <c r="J114">
         <v>267.14675999999997</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="3">
         <v>5.6070000000000002E-2</v>
       </c>
       <c r="L114">
@@ -6133,7 +6150,7 @@
       <c r="F115">
         <v>0</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.6073261004550387E-2</v>
       </c>
@@ -6146,7 +6163,7 @@
       <c r="J115">
         <v>267.14675999999997</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="3">
         <v>5.6070000000000002E-2</v>
       </c>
       <c r="L115">
@@ -6181,7 +6198,7 @@
       <c r="F116">
         <v>0</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.499945109873957E-2</v>
       </c>
@@ -6194,7 +6211,7 @@
       <c r="J116">
         <v>263.61754000000002</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="3">
         <v>5.5E-2</v>
       </c>
       <c r="L116">
@@ -6226,7 +6243,7 @@
       <c r="F117">
         <v>0</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.499945109873957E-2</v>
       </c>
@@ -6239,7 +6256,7 @@
       <c r="J117">
         <v>263.61754000000002</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="3">
         <v>5.5E-2</v>
       </c>
       <c r="L117">
@@ -6271,7 +6288,7 @@
       <c r="F118">
         <v>0</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.499945109873957E-2</v>
       </c>
@@ -6284,7 +6301,7 @@
       <c r="J118">
         <v>263.61754000000002</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="3">
         <v>5.5E-2</v>
       </c>
       <c r="L118">
@@ -6316,7 +6333,7 @@
       <c r="F119">
         <v>0</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.499945109873957E-2</v>
       </c>
@@ -6329,7 +6346,7 @@
       <c r="J119">
         <v>263.61754000000002</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="3">
         <v>5.5E-2</v>
       </c>
       <c r="L119">
@@ -6361,7 +6378,7 @@
       <c r="F120">
         <v>0</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.499945109873957E-2</v>
       </c>
@@ -6374,7 +6391,7 @@
       <c r="J120">
         <v>263.61754000000002</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="3">
         <v>5.5E-2</v>
       </c>
       <c r="L120">
@@ -6406,7 +6423,7 @@
       <c r="F121">
         <v>0</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="3">
         <f>(TestingFile[[#This Row],[Obj. LR]]-TestingFile[[#This Row],[LB Heuristic]])/TestingFile[[#This Row],[Obj. LR]]</f>
         <v>5.499945109873957E-2</v>
       </c>
@@ -6419,7 +6436,7 @@
       <c r="J121">
         <v>263.61754000000002</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="3">
         <v>5.5E-2</v>
       </c>
       <c r="L121">
